--- a/基于Android的智慧移动课堂学习系统/App测试bug记录3.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\11602\Documents\StudioProjects\SmartClass\基于Android的智慧移动课堂学习系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7001C006-A013-4A30-B169-1F5E03559524}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A8B92723-E5FE-4FE1-9CDB-F618F6B592DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="7956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>代延绪</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>1.老师踢了学生后应该提示并退出班课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.修改通知图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.一开始评价或结束的作业不能再提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -409,6 +421,9 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -420,6 +435,9 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -429,6 +447,11 @@
     <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/App测试bug记录3.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\11602\Documents\StudioProjects\SmartClass\基于Android的智慧移动课堂学习系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A8B92723-E5FE-4FE1-9CDB-F618F6B592DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AD0AB22C-CB0D-4B57-B612-E9986AF3B61B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="7956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>代延绪</t>
   </si>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.提交作业未加载完成时提交会把homeworkId作为null传上去</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -406,7 +410,7 @@
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -427,31 +431,57 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
